--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaskins\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC73ACE-8FA8-4B49-918B-E7D8C749F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429BCE8-C9E0-9340-9DBF-E43BCF267A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$3:$D$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$3:$E$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -468,12 +464,6 @@
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,93 +512,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -630,6 +536,42 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,6 +588,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,8 +3426,8 @@
       <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1404487" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3473,6 +3469,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3548,7 +3545,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3953,2544 +3950,2539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD38155-46B5-4450-A86F-722AA75D908F}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>4.22</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="13">
+      <c r="C3" s="18"/>
+      <c r="D3" s="11">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <f>A3+2</f>
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>4.24</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="14">
+      <c r="C4" s="18"/>
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>-2.8</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A68" si="0">A4+2</f>
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>4.26</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="14">
+      <c r="C5" s="18"/>
+      <c r="D5" s="12">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>-3.1</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="14">
+      <c r="C6" s="18"/>
+      <c r="D6" s="12">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>-3.3</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>4.26</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="14">
+      <c r="C7" s="18"/>
+      <c r="D7" s="12">
         <v>6</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>-3.5</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>4.28</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="14">
+      <c r="C8" s="18"/>
+      <c r="D8" s="12">
         <v>7</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>-3.7</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="14">
+      <c r="C9" s="18"/>
+      <c r="D9" s="12">
         <v>8</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>-3.8</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>4.32</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="14">
+      <c r="C10" s="18"/>
+      <c r="D10" s="12">
         <v>9</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>-3.9</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>4.33</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="14">
+      <c r="C11" s="18"/>
+      <c r="D11" s="12">
         <v>10</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>4.34</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="14">
+      <c r="C12" s="18"/>
+      <c r="D12" s="12">
         <v>15</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>-4.5</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="22"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="14">
+      <c r="C13" s="18"/>
+      <c r="D13" s="12">
         <v>20</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>-4.8</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>4.34</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="14">
+      <c r="C14" s="18"/>
+      <c r="D14" s="12">
         <v>30</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>-5.2</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>4.3600000000000003</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="14">
+      <c r="C15" s="18"/>
+      <c r="D15" s="12">
         <v>40</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>-5.5</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-      <c r="U15" s="23"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>4.33</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="14">
+      <c r="C16" s="18"/>
+      <c r="D16" s="12">
         <v>50</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>-5.8</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="U16" s="23"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="U16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>4.3</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="14">
+      <c r="C17" s="18"/>
+      <c r="D17" s="12">
         <v>60</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>-6</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-      <c r="U17" s="23"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="U17" s="19"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>4.28</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14">
+      <c r="C18" s="18"/>
+      <c r="D18" s="12">
         <v>70</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>-6.1</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="22"/>
-      <c r="U18" s="23"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="U18" s="19"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>4.25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="14">
+      <c r="C19" s="18"/>
+      <c r="D19" s="12">
         <v>80</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>-6.2</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="15">
+      <c r="C20" s="18"/>
+      <c r="D20" s="13">
         <v>90</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>-6.4</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="22"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>4.1900000000000004</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="9">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="22"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="9">
         <v>4.05</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>3.96</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>3.86</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="38">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="47">
         <f>AVERAGE(B3:B92)</f>
         <v>4.0329999999999995</v>
       </c>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="22"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="9">
         <v>3.75</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>3.7</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="22"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>3.63</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="30" t="s">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32" t="s">
+      <c r="M28" s="58"/>
+      <c r="N28" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="53">
+      <c r="O28" s="62"/>
+      <c r="P28" s="23">
         <f>((L29+N29)/2)</f>
         <v>3.91</v>
       </c>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="22"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>3.57</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="34">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="59">
         <f>MAX(B3:B92)</f>
         <v>4.37</v>
       </c>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36">
+      <c r="M29" s="60"/>
+      <c r="N29" s="63">
         <f>MIN(B3:B92)</f>
         <v>3.45</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="22"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="O29" s="64"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>3.5</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="22"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="9">
         <v>3.45</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="44">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="35">
         <f>128/24</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="9">
         <v>3.45</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="9">
         <v>3.48</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>3.53</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>3.56</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="22"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="9">
         <v>3.58</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="22"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>3.6</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="22"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="9">
         <v>3.65</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="22"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="18"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>3.7</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="22"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="18"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>3.73</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="22"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="18"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>3.75</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="22"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>3.76</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="22"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>3.78</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="22"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>3.82</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="22"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>3.85</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="22"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>3.86</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="22"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>3.85</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="22"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>3.84</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="22"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="18"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>3.87</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="22"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="18"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="9">
         <v>3.88</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="22"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="18"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="9">
         <v>3.91</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="22"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="18"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="9">
         <v>3.94</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="22"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="18"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="9">
         <v>3.95</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="18"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="9">
         <v>4</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="18"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="9">
         <v>3.99</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="22"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="18"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="9">
         <v>4.03</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="22"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="18"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="9">
         <v>4.05</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="22"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="18"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="9">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="22"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="18"/>
+    </row>
+    <row r="59" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="9">
         <v>4.08</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="9">
         <v>4.08</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="59" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="38">
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="47">
         <v>-3.4</v>
       </c>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="22"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="18"/>
+    </row>
+    <row r="61" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="22"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="18"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="9">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="9">
         <v>4.12</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="9">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="9">
         <v>4.17</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="9">
         <v>4.2</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="22"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="9">
         <v>4.21</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <f t="shared" ref="A69:A90" si="1">A68+2</f>
         <v>134</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="9">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="9">
         <v>4.25</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="22"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="22"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="9">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="22"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="9">
         <v>4.28</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="22"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="9">
         <v>4.29</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="9">
         <v>4.3099999999999996</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="9">
         <v>4.33</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="9">
         <v>4.34</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="22"/>
-      <c r="S77" s="22"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="9">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="9">
         <v>4.37</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="9">
         <v>4.33</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <f t="shared" si="1"/>
         <v>158</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="9">
         <v>4.3</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="9">
         <v>4.28</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="9">
         <v>4.26</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="9">
         <v>4.22</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="9">
         <v>4.18</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="9">
         <v>4.1100000000000003</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="9">
         <v>4.03</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="9">
         <v>3.98</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="9">
         <v>3.94</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="9">
         <v>3.83</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <f>A90+2</f>
         <v>178</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="9">
         <v>3.74</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9">
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+    </row>
+    <row r="92" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
         <f t="shared" ref="A92" si="2">A91+2</f>
         <v>180</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="10">
         <v>3.65</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="F31:K32"/>
-    <mergeCell ref="L31:R32"/>
-    <mergeCell ref="F60:K61"/>
-    <mergeCell ref="L60:R61"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F25:K26"/>
@@ -6500,6 +6492,11 @@
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="F31:K32"/>
+    <mergeCell ref="L31:R32"/>
+    <mergeCell ref="F60:K61"/>
+    <mergeCell ref="L60:R61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7429BCE8-C9E0-9340-9DBF-E43BCF267A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397C85E-18A8-1B4B-B3F9-3C289E17FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cephei Light Curve</t>
   </si>
@@ -72,12 +72,18 @@
   <si>
     <t>Observed Absolute Magnitude (M)</t>
   </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>306.61 parsecs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +170,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -458,11 +486,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +564,78 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,24 +654,6 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,58 +690,67 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3648,6 +3757,256 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284267</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>6693</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1821717" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526F28A2-D12C-A342-9E07-C19BC6D89E84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12284626" y="13855016"/>
+              <a:ext cx="1821717" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑚</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑀</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=2.5∗</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑙𝑜𝑔</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>10</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>[</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>/10)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>]</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526F28A2-D12C-A342-9E07-C19BC6D89E84}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12284626" y="13855016"/>
+              <a:ext cx="1821717" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑚−𝑀=2.5∗〖𝑙𝑜𝑔〗_10</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>[</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑/10)〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3950,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD38155-46B5-4450-A86F-722AA75D908F}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3963,15 +4322,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="56"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -4674,24 +5033,24 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="47">
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="33">
         <f>AVERAGE(B3:B92)</f>
         <v>4.0329999999999995</v>
       </c>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
       <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4705,19 +5064,19 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="52"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38"/>
       <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4757,28 +5116,28 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="57" t="s">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="58"/>
-      <c r="N28" s="61" t="s">
+      <c r="M28" s="40"/>
+      <c r="N28" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="23">
+      <c r="O28" s="44"/>
+      <c r="P28" s="47">
         <f>((L29+N29)/2)</f>
         <v>3.91</v>
       </c>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="25"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="49"/>
       <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4792,25 +5151,25 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="59">
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="41">
         <f>MAX(B3:B92)</f>
         <v>4.37</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="63">
+      <c r="M29" s="42"/>
+      <c r="N29" s="45">
         <f>MIN(B3:B92)</f>
         <v>3.45</v>
       </c>
-      <c r="O29" s="64"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="52"/>
       <c r="S29" s="18"/>
     </row>
     <row r="30" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4850,24 +5209,24 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="35">
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="53">
         <f>128/24</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="37"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="55"/>
       <c r="S31" s="18"/>
     </row>
     <row r="32" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4881,19 +5240,19 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="58"/>
       <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -5609,23 +5968,23 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="41" t="s">
+      <c r="F60" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="47">
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="33">
         <v>-3.4</v>
       </c>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="35"/>
       <c r="S60" s="18"/>
     </row>
     <row r="61" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5639,19 +5998,19 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="52"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="38"/>
       <c r="S61" s="18"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -5914,7 +6273,7 @@
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <f t="shared" si="1"/>
         <v>140</v>
@@ -5940,7 +6299,7 @@
       <c r="R72" s="18"/>
       <c r="S72" s="18"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <f t="shared" si="1"/>
         <v>142</v>
@@ -5951,19 +6310,21 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
+      <c r="F73" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
+      <c r="R73" s="76"/>
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -5977,19 +6338,21 @@
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="78"/>
+      <c r="Q74" s="78"/>
+      <c r="R74" s="79"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -6003,22 +6366,22 @@
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="69"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="82"/>
       <c r="S75" s="18"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <f t="shared" si="1"/>
         <v>148</v>
@@ -6029,19 +6392,19 @@
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="85"/>
       <c r="S76" s="18"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -6482,7 +6845,14 @@
       <c r="S93" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="F31:K32"/>
+    <mergeCell ref="L31:R32"/>
+    <mergeCell ref="F60:K61"/>
+    <mergeCell ref="L60:R61"/>
+    <mergeCell ref="F73:K76"/>
+    <mergeCell ref="L73:R73"/>
+    <mergeCell ref="L74:R76"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F25:K26"/>
@@ -6493,10 +6863,6 @@
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P28:R29"/>
-    <mergeCell ref="F31:K32"/>
-    <mergeCell ref="L31:R32"/>
-    <mergeCell ref="F60:K61"/>
-    <mergeCell ref="L60:R61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
+++ b/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/Lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/PEP-151-A/Labs/Lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397C85E-18A8-1B4B-B3F9-3C289E17FB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20FAFA-5B01-7440-8EEB-E85FE08B91AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
+    <workbookView xWindow="15580" yWindow="500" windowWidth="13220" windowHeight="17500" xr2:uid="{165796EB-C7F6-4074-A62F-526E35C871FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>306.61 parsecs</t>
+    <t>289.73 parsecs</t>
   </si>
 </sst>
 </file>
@@ -564,18 +564,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,6 +582,42 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,84 +634,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +697,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3765,8 +3765,8 @@
       <xdr:rowOff>6693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1821717" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3917,7 +3917,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4309,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD38155-46B5-4450-A86F-722AA75D908F}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" topLeftCell="G36" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4322,15 +4322,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
@@ -5033,24 +5033,24 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="33">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="41">
         <f>AVERAGE(B3:B92)</f>
         <v>4.0329999999999995</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="35"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
       <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5064,19 +5064,19 @@
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="38"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="46"/>
       <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5116,28 +5116,28 @@
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="39" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="40"/>
-      <c r="N28" s="43" t="s">
+      <c r="M28" s="73"/>
+      <c r="N28" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="44"/>
-      <c r="P28" s="47">
+      <c r="O28" s="77"/>
+      <c r="P28" s="80">
         <f>((L29+N29)/2)</f>
         <v>3.91</v>
       </c>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="49"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
       <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5151,25 +5151,25 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="41">
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="74">
         <f>MAX(B3:B92)</f>
         <v>4.37</v>
       </c>
-      <c r="M29" s="42"/>
-      <c r="N29" s="45">
+      <c r="M29" s="75"/>
+      <c r="N29" s="78">
         <f>MIN(B3:B92)</f>
         <v>3.45</v>
       </c>
-      <c r="O29" s="46"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="52"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="85"/>
       <c r="S29" s="18"/>
     </row>
     <row r="30" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5209,24 +5209,24 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="53">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="29">
         <f>128/24</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="31"/>
       <c r="S31" s="18"/>
     </row>
     <row r="32" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5240,19 +5240,19 @@
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="58"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="34"/>
       <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -5968,23 +5968,23 @@
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="33">
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="41">
         <v>-3.4</v>
       </c>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="35"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="43"/>
       <c r="S60" s="18"/>
     </row>
     <row r="61" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5998,19 +5998,19 @@
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="64"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="46"/>
       <c r="S61" s="18"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
@@ -6310,21 +6310,21 @@
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="65" t="s">
+      <c r="F73" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="75"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="75"/>
-      <c r="P73" s="75"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="76"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="58"/>
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -6338,21 +6338,21 @@
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="77" t="s">
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="79"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="60"/>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="60"/>
+      <c r="R74" s="61"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -6366,19 +6366,19 @@
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="80"/>
-      <c r="M75" s="81"/>
-      <c r="N75" s="81"/>
-      <c r="O75" s="81"/>
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="82"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="64"/>
       <c r="S75" s="18"/>
     </row>
     <row r="76" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6392,19 +6392,19 @@
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="73"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="84"/>
-      <c r="R76" s="85"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="67"/>
       <c r="S76" s="18"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -6846,13 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F31:K32"/>
-    <mergeCell ref="L31:R32"/>
-    <mergeCell ref="F60:K61"/>
-    <mergeCell ref="L60:R61"/>
-    <mergeCell ref="F73:K76"/>
-    <mergeCell ref="L73:R73"/>
-    <mergeCell ref="L74:R76"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F25:K26"/>
@@ -6863,6 +6856,13 @@
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="P28:R29"/>
+    <mergeCell ref="F31:K32"/>
+    <mergeCell ref="L31:R32"/>
+    <mergeCell ref="F60:K61"/>
+    <mergeCell ref="L60:R61"/>
+    <mergeCell ref="F73:K76"/>
+    <mergeCell ref="L73:R73"/>
+    <mergeCell ref="L74:R76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
